--- a/catalogacaoDados.xlsx
+++ b/catalogacaoDados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b5bbdbba8571144/Documentos/Catalogação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovan\Downloads\Catalogação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CBFC6F4-2680-48B8-8AA6-140142EDD1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21429E2-6FC2-4411-A791-4E73B5425901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1248" windowWidth="17280" windowHeight="8880" xr2:uid="{647034AA-FDB6-4D4C-869C-9BA5C3A85442}"/>
+    <workbookView xWindow="3336" yWindow="1944" windowWidth="17280" windowHeight="8880" xr2:uid="{647034AA-FDB6-4D4C-869C-9BA5C3A85442}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
-  <si>
-    <t>Especie</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="231">
   <si>
     <t>Cajueiro</t>
-  </si>
-  <si>
-    <t>Anacardium occidentale</t>
-  </si>
-  <si>
-    <t>O cajueiro é uma árvore de porte médio a grande, típica de regiões tropicais e subtropicais, amplamente cultivada em áreas costeiras. Essa planta frutífera, conhecida por seu fruto e pseudofruto, o caju, é comumente encontrada em solos arenosos e bem drenados, adaptando-se bem a condições semiáridas. O cajueiro desempenha um papel importante na fixação do solo, ajudando a prevenir a erosão em áreas de transição entre ambientes secos e úmidos, especialmente em ecossistemas costeiros. Além de sua importância econômica, o cajueiro também contribui para a biodiversidade local.</t>
   </si>
   <si>
     <t>Anacardiaceae</t>
@@ -75,9 +66,6 @@
     </r>
   </si>
   <si>
-    <t>O camarão branco é um crustáceo de porte médio, típico de regiões costeiras e estuarinas. Essa espécie aquática é frequentemente encontrada em manguezais, lagoas costeiras e áreas de transição entre ambientes de água doce e salgada. O camarão branco prospera em águas salobras e pouco profundas, desempenhando um papel crucial na cadeia alimentar e na manutenção da saúde dos ecossistemas aquáticos. Além disso, essa espécie é de grande importância econômica, sendo amplamente cultivada em sistemas de aquicultura devido à sua alta demanda no mercado.</t>
-  </si>
-  <si>
     <t>Penaeidae</t>
   </si>
   <si>
@@ -154,6 +142,42 @@
   </si>
   <si>
     <t>Penaeus monodon</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs97</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs98</t>
+  </si>
+  <si>
+    <t>Penaeus</t>
+  </si>
+  <si>
+    <t>imgs\especies\Camarão Tigre\1.jpg</t>
+  </si>
+  <si>
+    <t>Abelha Malífera</t>
+  </si>
+  <si>
+    <t>AbelhaMalifera</t>
+  </si>
+  <si>
+    <t>imgs\especies\Abelha Melífera (Apis Mellifera)\1.jpg</t>
+  </si>
+  <si>
+    <t>Apis Mellifera</t>
+  </si>
+  <si>
+    <t>Apídeos</t>
+  </si>
+  <si>
+    <t>Apis</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs99</t>
+  </si>
+  <si>
+    <t>A Apis mellifera é uma abelha adaptada a diversos ambientes, incluindo áreas de restinga e manguezais. Nessas regiões costeiras, ela contribui para a polinização de plantas nativas, desempenhando um papel importante na manutenção da biodiversidade local. Mesmo em ecossistemas desafiadores como solos arenosos da restinga ou áreas alagadas do manguezal, essa abelha é capaz de prosperar, auxiliando na reprodução das espécies vegetais e na estabilidade do ambiente.</t>
   </si>
   <si>
     <r>
@@ -178,18 +202,109 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, conhecido como camarão-tigre-gigante, é uma espécie de crustáceo marinho de grande porte, comumente encontrada em regiões costeiras e estuarinas. Esse camarão habita principalmente águas tropicais e subtropicais, prosperando em ambientes de manguezais, estuários e áreas de transição entre água doce e salgada. Ele prefere solos lodosos e arenosos, desempenhando um papel importante nos ecossistemas costeiros, tanto como parte da cadeia alimentar quanto na estabilização de sedimentos. Além de sua relevância ecológica, o </t>
+      <t>, conhecido como camarão-tigre-gigante, é uma espécie de crustáceo marinho de grande porte, comumente encontrada em regiões costeiras e estuarinas. Esse camarão habita principalmente águas tropicais e subtropicais, prosperando em ambientes de manguezais, estuários e áreas de transição entre água doce e salgada. Ele prefere solos lodosos e arenosos, desempenhando um papel importante nos ecossistemas costeiros, tanto como parte da cadeia alimentar quanto na estabilização de sedimentos.</t>
+    </r>
+  </si>
+  <si>
+    <t>O camarão branco é um crustáceo de porte médio, típico de regiões costeiras e estuarinas. Essa espécie aquática é frequentemente encontrada em manguezais, lagoas costeiras e áreas de transição entre ambientes de água doce e salgada. O camarão branco prospera em águas salobras e pouco profundas, desempenhando um papel crucial na cadeia alimentar e na manutenção da saúde dos ecossistemas aquáticos.</t>
+  </si>
+  <si>
+    <t>O cajueiro é uma árvore de porte médio a grande, típica de regiões tropicais e subtropicais, amplamente cultivada em áreas costeiras. Essa planta frutífera, conhecida por seu fruto e pseudofruto, o caju, é comumente encontrada em solos arenosos e bem drenados, adaptando-se bem a condições semiáridas. O cajueiro desempenha um papel importante na fixação do solo, ajudando a prevenir a erosão em áreas de transição entre ambientes secos e úmidos, especialmente em ecossistemas costeiros.</t>
+  </si>
+  <si>
+    <t>Azeitoneira</t>
+  </si>
+  <si>
+    <t>imgs\especies\Azeitoneira\1.jpg</t>
+  </si>
+  <si>
+    <t>A árvore mostrada na foto é conhecidada popularmente por azeitoneira, ela é uma planta de grande porte e dá frutos denominados azeitona.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs100</t>
+  </si>
+  <si>
+    <t>Oleaceae</t>
+  </si>
+  <si>
+    <t>Familia: Oleaceae</t>
+  </si>
+  <si>
+    <t>Capim Paturá</t>
+  </si>
+  <si>
+    <t>CapimPatura</t>
+  </si>
+  <si>
+    <t>Spartina alterniflora</t>
+  </si>
+  <si>
+    <t>imgs\especies\Capim Paturá (Spartina alterniflora)\1.jpg</t>
+  </si>
+  <si>
+    <t>O Capim Capurá é uma gramínea típica de zonas costeiras, especialmente encontrada em manguezais e áreas de marismas (pântanos salgados). Adaptada a solos alagados e salinos, ela desempenha um papel crucial na proteção contra a erosão, estabilizando o solo com seu sistema radicular denso. Além disso, o Capim Capurá contribui para a filtragem de nutrientes da água e serve de habitat para diversas espécies de fauna costeira. Sua capacidade de sobreviver em ambientes de transição entre a terra e o mar torna essa planta essencial para a preservação dos ecossistemas de manguezal.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs101</t>
+  </si>
+  <si>
+    <t>Spartina</t>
+  </si>
+  <si>
+    <t>Poaceae</t>
+  </si>
+  <si>
+    <t>Capivara</t>
+  </si>
+  <si>
+    <t>Hydrochoerus hydrochaeris</t>
+  </si>
+  <si>
+    <t>Caviidae</t>
+  </si>
+  <si>
+    <t>Hydrochoerus</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs102</t>
+  </si>
+  <si>
+    <t>Lago do Juncal (Praia de São Pedro)</t>
+  </si>
+  <si>
+    <t>imgs\especies\Capivara\1.jpg</t>
+  </si>
+  <si>
+    <t>A Capivara pode ser encontrado em áreas próximas a corpos d'água, como margens de rios, lagoas, restingas e, ocasionalmente, manguezais. Adaptada a habitats úmidos, a capivara se beneficia desses ecossistemas para alimentação e proteção. Em áreas de restinga, ela pode se alimentar da vegetação rasteira e aquática, enquanto nos manguezais, encontra refúgio nas zonas de transição entre terra e água. Na imagem vemos vestigios dessa especie no lago do Juncal.</t>
+  </si>
+  <si>
+    <t>CaramujoMangue</t>
+  </si>
+  <si>
+    <t>imgs\especies\Caramujo\1.jpg</t>
+  </si>
+  <si>
+    <t>Littoraria angulifera</t>
+  </si>
+  <si>
+    <t>Littorinidae</t>
+  </si>
+  <si>
+    <t>Littoraria</t>
+  </si>
+  <si>
+    <r>
+      <t>A Littoraria angulifera, conhecida</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Penaeus monodon</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -199,27 +314,483 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> é amplamente cultivado na aquicultura, sendo uma das espécies mais valiosas comercialmente em todo o mundo, devido ao seu tamanho e alta demanda no mercado.</t>
+      <t>como Caramujo de Mangue, é uma espécie de molusco comum em manguezais. Ela habita as raízes aéreas e troncos das árvores de mangue, como é o caso da especie da foto que foi encontrada em uma raiz de Mangue Vermelho. Adaptada a áreas intertidais, essa espécie pode suportar a variação de salinidade e inundação periódica, o Caramujo do Mangue serve de alimento para diversos predadores, como aves e peixes, integrando-se à cadeia alimentar local.</t>
     </r>
   </si>
   <si>
-    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs97</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs98</t>
-  </si>
-  <si>
-    <t>Penaeus</t>
-  </si>
-  <si>
-    <t>imgs\especies\Camarão Tigre\1.jpg</t>
+    <t>Caramujo do Mangue</t>
+  </si>
+  <si>
+    <t>Caranguejo</t>
+  </si>
+  <si>
+    <t>Caranguejo1</t>
+  </si>
+  <si>
+    <t>imgs\especies\Caranguejo (Especie não identificada)\1.jpg</t>
+  </si>
+  <si>
+    <t>imgs\especies\Caranguejo (Especie não identificada)\1.mp4</t>
+  </si>
+  <si>
+    <t>Infraordem: Brachyura</t>
+  </si>
+  <si>
+    <t>Os Brachyura, ou caranguejos, são crustáceos decápodes encontrados em manguezais e áreas de restinga. Adaptados a ambientes salinos, eles desempenham um papel importante na decomposição da matéria orgânica, contribuindo para a ciclagem de nutrientes. Além disso, servem como alimento para várias espécies de aves e peixes, integrando-se à cadeia alimentar local. Sua habilidade de escavar tocas ajuda na estabilização do solo e na prevenção da erosão nos ecossistemas costeiros.</t>
+  </si>
+  <si>
+    <t>Caranguejo Maracoani</t>
+  </si>
+  <si>
+    <t>CaranguejoMaracoani</t>
+  </si>
+  <si>
+    <t>imgs\especies\Caranguejo Maracoani\1.jpg</t>
+  </si>
+  <si>
+    <t>imgs\especies\Caranguejo Maracoani\1.mp4</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs103</t>
+  </si>
+  <si>
+    <t>Ocypodidae</t>
+  </si>
+  <si>
+    <t>Uca</t>
+  </si>
+  <si>
+    <t>imgs\especies\Caranguejo Maria Farinha\1.jpg</t>
+  </si>
+  <si>
+    <t>imgs\especies\Caranguejo Maria Farinha\1.mp4</t>
+  </si>
+  <si>
+    <t>MariaFarinha</t>
+  </si>
+  <si>
+    <t>Ocypode quadrata</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs104</t>
+  </si>
+  <si>
+    <t>Ocypode</t>
+  </si>
+  <si>
+    <t>Maria Farinha</t>
+  </si>
+  <si>
+    <t>O Ocypode quadrata, conhecida como Maria Farinha, é uma espécie de caranguejo encontrada em praias arenosas e, ocasionalmente, em áreas de restinga. Adaptada a ambientes costeiros, essa espécie vive em tocas que escava na areia, onde se abriga e se protege de predadores. O Ocypode quadrata é ativo principalmente à noite, alimentando-se de detritos, pequenos invertebrados e material orgânico trazido pela maré. Sua atividade de escavação ajuda a aerar o solo, contribuindo para a saúde do ecossistema da praia e da restinga.</t>
+  </si>
+  <si>
+    <t>O Caranguejo Maracoani é encontrado em manguezais, estuários e áreas de restinga. Ele é facilmente identificado pela grande diferença de tamanho entre suas garras, com os machos possuindo uma garra muito maior que a outra, usada tanto para defesa quanto para cortejo. Adaptado a ambientes lamosos e salinos, o Maracoani escava tocas no solo, onde se abriga durante a maré alta e para se proteger de predadores. Sua atividade de escavação melhora a oxigenação do solo, contribuindo para a saúde do ecossistema do manguezal. Além disso, ele se alimenta de material orgânico e microalgas, desempenhando um papel importante na reciclagem de nutrientes nesses habitats costeiros.</t>
+  </si>
+  <si>
+    <t>imgs\especies\Caranguejo Uçá\1.jpg</t>
+  </si>
+  <si>
+    <t>Caranguejo Uçá</t>
+  </si>
+  <si>
+    <t>Ucides cordatus</t>
+  </si>
+  <si>
+    <t>CaranguejoUca</t>
+  </si>
+  <si>
+    <t>O Ucides Cordatus, conhecido como Caranguejo Uçá, é uma espécie típica de manguezais, onde escava tocas profundas no solo lodoso. Esse caranguejo se alimenta principalmente de folhas de mangue, ajudando na decomposição da matéria orgânica e contribuindo para o ciclo de nutrientes no ecossistema. Suas tocas auxiliam na oxigenação do solo, promovendo a saúde do manguezal. Além de seu papel ecológico, o Ucides cordatus é uma espécie de grande importância econômica e cultural, sendo amplamente capturado para consumo humano nas regiões costeiras.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs105</t>
+  </si>
+  <si>
+    <t>Ucides</t>
+  </si>
+  <si>
+    <t>imgs\especies\Carcará\1.jpg</t>
+  </si>
+  <si>
+    <t>Caracara plancus</t>
+  </si>
+  <si>
+    <t>Carcará</t>
+  </si>
+  <si>
+    <t>Carcara</t>
+  </si>
+  <si>
+    <t>Falconídeos</t>
+  </si>
+  <si>
+    <t>Caracara</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs106</t>
+  </si>
+  <si>
+    <t>O Caracara Plancus, conhecido como carcará, é uma ave de rapina comum em diversos ambientes, incluindo áreas de restinga e manguezais. Adaptado a uma ampla variedade de habitats, o carcará é um oportunista alimentar, consumindo desde pequenos animais e carniça até frutos. Em ecossistemas costeiros, como manguezais, ele pode se alimentar de caranguejos, peixes e outros pequenos animais. O carcará desempenha um papel importante no controle de populações de presas e na limpeza de carcaças, contribuindo para o equilíbrio ecológico desses ambientes.</t>
+  </si>
+  <si>
+    <t>Chamaecrista ramosa</t>
+  </si>
+  <si>
+    <t>Chamaecrista Ramosa</t>
+  </si>
+  <si>
+    <t>ChamaecristaRamosa</t>
+  </si>
+  <si>
+    <t>imgs\especies\Chamaecrista ramosa\1.jpg</t>
+  </si>
+  <si>
+    <t>A Chamaecrista Ramosa é uma planta herbácea nativa de regiões costeiras, especialmente encontrada em áreas de restinga. Adaptada a solos arenosos e pobres em nutrientes, essa espécie desempenha um papel importante na estabilização do solo, ajudando a prevenir a erosão em ambientes frágeis. Além disso, como planta pioneira, ela contribui para a recuperação de áreas degradadas, sendo resistente a condições adversas, como alta salinidade e intensa radiação solar, características típicas das restingas.</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>Chamaecrista</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs107</t>
+  </si>
+  <si>
+    <t>Cipó</t>
+  </si>
+  <si>
+    <t>Cipo1</t>
+  </si>
+  <si>
+    <t>Não identificado</t>
+  </si>
+  <si>
+    <t>imgs\especies\Cipó\1.jpg</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs108</t>
+  </si>
+  <si>
+    <t>Especie de cipó não identificado, entretanto, há grandes chances de ser um Heteropsis spp, a qual é um cipó lenhoso, frequentemente encontrado em áreas de restinga. Pode se entrelaçar em outras árvores e tem folhas grandes</t>
+  </si>
+  <si>
+    <t>Cipó de Tracuá</t>
+  </si>
+  <si>
+    <t>CipoDeTracua</t>
+  </si>
+  <si>
+    <t>Gênero: Philodendron</t>
+  </si>
+  <si>
+    <t>Gênero: Uca</t>
+  </si>
+  <si>
+    <t>imgs\especies\Cipó de tracuá\1.jpg</t>
+  </si>
+  <si>
+    <t>O Philodendron é um gênero de plantas amplamente distribuído em florestas tropicais, mas também pode ser encontrado em áreas de manguezais. Essas plantas são conhecidas por sua capacidade de se adaptar a ambientes sombreados e úmidos, escalando árvores ou espalhando-se pelo solo. No contexto de manguezais, o Philodendron contribui para a biodiversidade, fornecendo abrigo e suporte para pequenos animais e ajudando a estabilizar o solo com suas raízes. Seu papel ecológico é importante na manutenção da estrutura do ecossistema, mesmo em ambientes sujeitos a inundações periódicas.</t>
+  </si>
+  <si>
+    <t>Philodendron</t>
+  </si>
+  <si>
+    <t>Araceae</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs109</t>
+  </si>
+  <si>
+    <t>Cogumelo</t>
+  </si>
+  <si>
+    <t>Schizophyllum commune</t>
+  </si>
+  <si>
+    <t>SchizophyllumCommune</t>
+  </si>
+  <si>
+    <t>imgs\especies\Cogumelo Schizophyllum Commune\1.jpg</t>
+  </si>
+  <si>
+    <t>O Schizophyllum Commune é um fungo amplamente distribuído, comum em diversos ecossistemas, incluindo áreas de manguezais e restingas. Ele cresce principalmente em madeira em decomposição, desempenhando um papel crucial na ciclagem de nutrientes ao decompor matéria orgânica, como galhos e troncos mortos. Esse fungo é resistente a condições adversas, podendo sobreviver em ambientes com variações de umidade e temperatura. Sua presença é importante para a manutenção da saúde dos ecossistemas costeiros, ajudando na decomposição da biomassa vegetal e contribuindo para o equilíbrio ecológico.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs110</t>
+  </si>
+  <si>
+    <t>Schizophyllaceae</t>
+  </si>
+  <si>
+    <t>Schizophyllum</t>
+  </si>
+  <si>
+    <t>Cracas</t>
+  </si>
+  <si>
+    <t>Subordem: Sessilia</t>
+  </si>
+  <si>
+    <t>imgs\especies\Cracas\1.jpg</t>
+  </si>
+  <si>
+    <t>Os Sessilia são uma ordem de crustáceos conhecidos como cracas, organismos sésseis que se fixam em superfícies submersas, como rochas, conchas, embarcações e raízes de manguezais. Adaptadas a ambientes marinhos e estuarinos, as cracas prosperam em áreas de manguezais e regiões costeiras, onde filtram partículas de alimento da água, como plâncton e matéria orgânica. Embora pequenas, elas desempenham um papel importante no ecossistema ao ajudar na filtragem da água e servir de alimento para peixes e outros animais. Além disso, a presença de cracas nas raízes de mangue pode aumentar a biodiversidade ao criar micro-habitats para outras espécies marinhas.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs111</t>
+  </si>
+  <si>
+    <t>Cupim</t>
+  </si>
+  <si>
+    <t>Nasutitermes</t>
+  </si>
+  <si>
+    <t>Gênero: Nasutitermes</t>
+  </si>
+  <si>
+    <t>imgs\especies\Cupinzeiro\1.mp4</t>
+  </si>
+  <si>
+    <t>imgs\especies\Cupinzeiro\1.jpg</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs112</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs113</t>
+  </si>
+  <si>
+    <t>Termitidae</t>
+  </si>
+  <si>
+    <t>Curica</t>
+  </si>
+  <si>
+    <t>Amazona amazonica</t>
+  </si>
+  <si>
+    <t>imgs\especies\Curica\1.jpg</t>
+  </si>
+  <si>
+    <t>imgs\especies\Curica\1.mp4</t>
+  </si>
+  <si>
+    <t>Nasutitermes é um gênero de cupins amplamente distribuído em regiões tropicais, com espécies que habitam áreas de manguezais e restingas. Esses cupins são conhecidos por construir grandes ninhos, geralmente em troncos de árvores ou no solo, onde vivem em colônias organizadas. Eles se alimentam de madeira e material vegetal em decomposição, desempenhando um papel essencial na ciclagem de nutrientes ao acelerar a decomposição da matéria orgânica. Em ecossistemas como os manguezais, os *Nasutitermes* contribuem para a reciclagem de detritos vegetais e ajudam a manter a saúde do solo, influenciando diretamente o equilíbrio ecológico local.</t>
+  </si>
+  <si>
+    <t>A Amazona amazonica, conhecida como a papagaio-da-amazônia ou papagaio-verde, é uma ave nativa das florestas tropicais e áreas de manguezais da América do Sul. Essas aves são frequentemente encontradas em bandos e se alimentam de frutas, sementes e flores, desempenhando um papel importante na dispersão de sementes em seus habitats. Em áreas de manguezais e restingas, a Amazona amazonica pode se beneficiar da rica biodiversidade dessas regiões, usando as árvores de mangue como locais de nidificação e abrigo. Além de sua importância ecológica, essa espécie é apreciada por suas cores vibrantes e por seu comportamento social, sendo uma ave popular em cativeiro.</t>
+  </si>
+  <si>
+    <t>Psittacidae</t>
+  </si>
+  <si>
+    <t>Amazona</t>
+  </si>
+  <si>
+    <t>Díptero-das-galhas</t>
+  </si>
+  <si>
+    <t>DipteroDasGalhas</t>
+  </si>
+  <si>
+    <t>Cecidomyiidae</t>
+  </si>
+  <si>
+    <t>imgs\especies\Díptero-das-galhas (Cecidomyiidae)\20241008_081644.jpg</t>
+  </si>
+  <si>
+    <t>Os Cecidomyiidae, conhecidos como moscas-galo, são uma família de pequenos insetos da ordem Diptera, frequentemente encontrados em uma variedade de habitats, incluindo áreas de manguezais e restingas. Essas moscas são conhecidas por causar galhas em plantas, onde suas larvas se desenvolvem. Em ecossistemas costeiros, elas podem se alimentar de diversas plantas nativas, influenciando a saúde das vegetações locais. Além disso, as galhas que formam podem afetar o crescimento e a reprodução das plantas hospedeiras, desempenhando um papel importante na dinâmica ecológica e na interação entre espécies vegetais e herbívoros. As Cecidomyiidae também são indicadoras da saúde ambiental, já que sua presença pode refletir as condições do habitat em que estão inseridas.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs114</t>
+  </si>
+  <si>
+    <t>Familia: Cecidomyiidae</t>
+  </si>
+  <si>
+    <t>Mamãozinho</t>
+  </si>
+  <si>
+    <t>Entada polystachya (L.) DC.</t>
+  </si>
+  <si>
+    <t>imgs\especies\Entada polystachya (L.) DC. (Mamãozinho)\1.jpg</t>
+  </si>
+  <si>
+    <t>A Entada polystachya é uma espécie de planta trepadeira nativa de regiões tropicais, frequentemente encontrada em áreas de manguezais e restingas. Adaptada a solos úmidos e bem drenados, essa planta se distingue por suas longas vagens e capacidade de se enredar em outras árvores. A Entada polystachya desempenha um papel importante na fixação de nitrogênio no solo, contribuindo para a fertilidade do ambiente. Além disso, suas sementes e vagens flutuantes podem se dispersar por longas distâncias, auxiliando na colonização de novos territórios. Essa planta também possui valor medicinal em várias culturas tradicionais.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs115</t>
+  </si>
+  <si>
+    <t>Entada</t>
+  </si>
+  <si>
+    <t>Formigas Carpinteiras</t>
+  </si>
+  <si>
+    <t>FormigasCarpinteiras</t>
+  </si>
+  <si>
+    <t>Camponotus spp.</t>
+  </si>
+  <si>
+    <t>imgs\especies\Formigas Carpinteiras (Camponotus spp.)\1.jpg</t>
+  </si>
+  <si>
+    <t>imgs\especies\Formigas Carpinteiras (Camponotus spp.)\1.mp4</t>
+  </si>
+  <si>
+    <t>Camponotus spp., também conhecidas como formigas carpinteiras, são um gênero de formigas amplamente distribuídas em vários habitats, incluindo áreas de manguezais e restingas. Essas formigas são notáveis por escavar madeira morta ou em decomposição para construir seus ninhos, desempenhando um papel importante na decomposição da matéria orgânica e na aeração do solo. Em ecossistemas costeiros, elas ajudam na ciclagem de nutrientes e podem interagir com plantas e outros insetos, tanto como predadoras quanto dispersoras de sementes. A presença de Camponotus spp. é fundamental para o equilíbrio ecológico, já que suas atividades contribuem para a saúde do ambiente e a biodiversidade local.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs116</t>
+  </si>
+  <si>
+    <t>Formicidae</t>
+  </si>
+  <si>
+    <t>Camponotus</t>
+  </si>
+  <si>
+    <t>Gênero: Anacardium</t>
+  </si>
+  <si>
+    <t>Gaivota</t>
+  </si>
+  <si>
+    <t>imgs\especies\Gaivota\1.jpg</t>
+  </si>
+  <si>
+    <t>Larídeos</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs117</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs118</t>
+  </si>
+  <si>
+    <t>Familia: Larídeos</t>
+  </si>
+  <si>
+    <t>Os Larídeos (Laridae) são uma família de aves marinhas que inclui gaivotas, trinta-réis e espécies relacionadas, comumente encontradas em ambientes costeiros, como praias, restingas e manguezais. Essas aves são altamente adaptadas a viver perto da água, alimentando-se de peixes, crustáceos e outros pequenos organismos marinhos. Elas desempenham um papel importante nos ecossistemas costeiros ao controlar populações de presas e dispersar nutrientes através de suas fezes. Além disso, os Larídeos contribuem para a limpeza do ambiente, pois se alimentam também de carcaças e restos de comida, ajudando a manter o equilíbrio ecológico nas zonas litorâneas.</t>
+  </si>
+  <si>
+    <t>imgs\especies\Gaivota\1.mp4</t>
+  </si>
+  <si>
+    <t>Garça</t>
+  </si>
+  <si>
+    <t>Ardeidae</t>
+  </si>
+  <si>
+    <t>Familia: Ardeidae</t>
+  </si>
+  <si>
+    <t>imgs\especies\Garça\1.jpg</t>
+  </si>
+  <si>
+    <t>imgs\especies\Garça\1.mp4</t>
+  </si>
+  <si>
+    <t>Os Ardeidae são uma família de aves que inclui garças, socós e guarás, amplamente distribuídas em ambientes aquáticos, como manguezais, restingas, estuários e pântanos. Essas aves são carnívoras e se alimentam de peixes, anfíbios, insetos e pequenos crustáceos, desempenhando um papel importante no controle das populações desses animais. Nos manguezais e áreas de restinga, as garças e outras aves da família Ardeidae são predadoras de topo, contribuindo para o equilíbrio ecológico. Além disso, sua presença é um indicativo da saúde desses ecossistemas, já que elas dependem de corpos d'água limpos e de uma rica biodiversidade para sobreviver.</t>
+  </si>
+  <si>
+    <t>Gavião Carrapateiro</t>
+  </si>
+  <si>
+    <t>GaviãoCarrapateiro</t>
+  </si>
+  <si>
+    <t>Milvago chimachima</t>
+  </si>
+  <si>
+    <t>imgs\especies\Gavião Carrapateiro\1.jpg</t>
+  </si>
+  <si>
+    <t>O Milvago chimachima, conhecido como carrapateiro, é uma ave de rapina comum em áreas abertas e regiões costeiras, incluindo manguezais e restingas. Adaptado a uma dieta oportunista, o carrapateiro se alimenta de pequenos animais, insetos, carniça e até parasitas, como carrapatos que remove de grandes mamíferos, o que lhe dá seu nome popular. Sua capacidade de explorar diversos recursos alimentares o torna uma espécie versátil em diferentes habitats. Em ecossistemas de manguezais e restingas, o Milvago chimachima contribui para o equilíbrio ecológico ao controlar populações de presas e ajudar na limpeza do ambiente ao consumir restos de animais mortos.</t>
+  </si>
+  <si>
+    <t>Milvago</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs119</t>
+  </si>
+  <si>
+    <t>Grama da Praia</t>
+  </si>
+  <si>
+    <t>GramaDaPraia</t>
+  </si>
+  <si>
+    <t>Sporobolus virginicus</t>
+  </si>
+  <si>
+    <t>imgs\especies\Grama da Praia (Sporobolus virginicus)\1.jpg</t>
+  </si>
+  <si>
+    <t>Grama da Praia é uma gramínea perene comumente encontrada em áreas costeiras, como restingas e manguezais. Adaptada a solos salinos e arenosos, essa planta desempenha um papel fundamental na estabilização do solo, ajudando a prevenir a erosão em regiões costeiras. Suas raízes profundas e resistentes permitem que ela prospere em condições adversas, como alta salinidade e seca. Além disso, Grama da Praia contribui para a conservação dos ecossistemas litorâneos, fornecendo habitat e alimento para diversas espécies de fauna local, como pequenos invertebrados e aves.</t>
+  </si>
+  <si>
+    <t>Sporobolus</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs120</t>
+  </si>
+  <si>
+    <t>Grilo de Campo</t>
+  </si>
+  <si>
+    <t>Gryllodes</t>
+  </si>
+  <si>
+    <t>Gryllodes é um gênero de grilos que habita uma variedade de ambientes, incluindo áreas costeiras, como restingas. Esses grilos são noturnos e onívoros, alimentando-se de matéria vegetal, pequenos insetos e detritos orgânicos. Em ecossistemas como as restingas, os Gryllodes desempenham um papel importante na decomposição da matéria orgânica, contribuindo para a ciclagem de nutrientes no solo. Além disso, servem de presa para diversos predadores, como aves e pequenos mamíferos, integrando-se à cadeia alimentar local e ajudando a manter o equilíbrio ecológico.</t>
+  </si>
+  <si>
+    <t>Gênero: Gryllodes</t>
+  </si>
+  <si>
+    <t>imgs\especies\Grilo de Campo\1.jpg</t>
+  </si>
+  <si>
+    <t>Gryllidae</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs121</t>
+  </si>
+  <si>
+    <t>Tralhoto</t>
+  </si>
+  <si>
+    <t>Anableps anableps</t>
+  </si>
+  <si>
+    <t>imgs\especies\Tralhoto\1.jpg</t>
+  </si>
+  <si>
+    <t>imgs\especies\Tralhoto\1.mp4</t>
+  </si>
+  <si>
+    <t>O Anableps anableps, conhecido popularmente como tralhoto ou peixe-de-quatro-olhos, é um peixe de água doce encontrado em ambientes costeiros, como estuários e manguezais da América do Sul. Este peixe é notável por suas adaptações únicas, incluindo olhos que se dividem em duas partes, permitindo que ele veja tanto acima quanto abaixo da superfície da água ao mesmo tempo. O tralhoto se alimenta de insetos, pequenos crustáceos e matéria orgânica, desempenhando um papel importante na cadeia alimentar desses ecossistemas. Sua presença em áreas de manguezais contribui para a biodiversidade local e é um indicativo da saúde dos ambientes aquáticos em que habita.</t>
+  </si>
+  <si>
+    <t>Anablepidae</t>
+  </si>
+  <si>
+    <t>Four-eyed fish</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +855,20 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -338,7 +923,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,215 +1261,1052 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65009DD9-AB6C-4675-B464-E2784F87AEDE}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="22.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.59765625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="18.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="15.6">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15.6">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.95" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.8" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.2" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41.4" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="49.8" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="E11" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.6" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="37.799999999999997" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="38.4" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="37.200000000000003" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="36.6" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="49.2" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="51" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="46.8" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="42.6" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="57.6" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="51.6" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="49.8" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="39" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="37.200000000000003" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="43.8" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="40.200000000000003" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="43.8" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="40.799999999999997" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="42.6" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="40.200000000000003" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="33.6" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="32.4" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30.6" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.2" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{EF16FD7D-8FF7-4BA1-962D-AAADC35754EE}"/>
-    <hyperlink ref="K4" r:id="rId2" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{05C86542-E175-4BD1-A8A2-BB68A5C21E5F}"/>
-    <hyperlink ref="K5" r:id="rId3" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{807139DE-EBDF-411E-BB72-683FB3236E01}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{EF16FD7D-8FF7-4BA1-962D-AAADC35754EE}"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{05C86542-E175-4BD1-A8A2-BB68A5C21E5F}"/>
+    <hyperlink ref="J5" r:id="rId3" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{807139DE-EBDF-411E-BB72-683FB3236E01}"/>
+    <hyperlink ref="J6" r:id="rId4" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{63AD59A5-D5C3-468F-B8E8-A4D5534C4CAC}"/>
+    <hyperlink ref="J7" r:id="rId5" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{3259EC55-0C8F-4019-ACB4-A7A67DB49710}"/>
+    <hyperlink ref="J8" r:id="rId6" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{10B6E420-88A8-4736-A1E4-E5926573D284}"/>
+    <hyperlink ref="J9" r:id="rId7" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{5EDB5C21-5477-4397-BDE9-7C9FC257F708}"/>
+    <hyperlink ref="J10" r:id="rId8" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{84155879-B81A-4A0D-806F-20C1D61CBF4A}"/>
+    <hyperlink ref="J11" r:id="rId9" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{BD2DC36B-8AB6-479D-8BAE-4CA3E0D567C7}"/>
+    <hyperlink ref="J12" r:id="rId10" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{37F289A1-BE0C-46BB-8821-BA9236799B62}"/>
+    <hyperlink ref="J13" r:id="rId11" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{F1EB63F1-94EA-4EAC-8B27-EEC0EDEF3396}"/>
+    <hyperlink ref="J14" r:id="rId12" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E2B91EE3-A2CF-4B25-911A-E826C24580D9}"/>
+    <hyperlink ref="J15" r:id="rId13" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E42724D5-0D36-46DA-80A3-50224C9AB603}"/>
+    <hyperlink ref="J16" r:id="rId14" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{A5117219-8659-438A-A59A-4EDF638BFF65}"/>
+    <hyperlink ref="J17" r:id="rId15" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{65E172B7-1585-487A-B2EC-5FA14D3BBFDA}"/>
+    <hyperlink ref="J18" r:id="rId16" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E2A99AC7-1A55-4D1B-A04A-97B03E65244B}"/>
+    <hyperlink ref="J19" r:id="rId17" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D0B89B94-FCF0-4448-8290-5913727F04BD}"/>
+    <hyperlink ref="J20" r:id="rId18" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{DFB93324-58FD-4BA9-98F9-BB0314F4E641}"/>
+    <hyperlink ref="J21" r:id="rId19" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D6F9BE01-9EFA-4937-8E67-F76C3EF1F13C}"/>
+    <hyperlink ref="J22" r:id="rId20" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{5EF95A8F-B38A-41C2-A591-612B166FE57F}"/>
+    <hyperlink ref="J23" r:id="rId21" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{063FBC01-888D-4370-876B-1DF7E6398C9F}"/>
+    <hyperlink ref="J24" r:id="rId22" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D8CE8098-21B5-42FC-8A27-C36C931330FC}"/>
+    <hyperlink ref="J25" r:id="rId23" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{8C1CE24C-D4C0-43A9-8134-ADC47CE14B5A}"/>
+    <hyperlink ref="J26" r:id="rId24" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{2C601E6C-3B57-460F-B450-26722195B9FA}"/>
+    <hyperlink ref="J27" r:id="rId25" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{597A4FEC-DFF5-4561-9675-FD2BE0F60011}"/>
+    <hyperlink ref="J28" r:id="rId26" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{2C7221DF-102A-479A-A447-4806655E5DF9}"/>
+    <hyperlink ref="J29" r:id="rId27" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{C88C4B0F-589C-441B-9F3C-B61DEBC17FE2}"/>
+    <hyperlink ref="J30" r:id="rId28" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{373ED401-B2F9-4B85-86C0-5E587F8DB454}"/>
+    <hyperlink ref="J31" r:id="rId29" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{B6BB9840-E90B-46C3-B4EB-6D22709BD96C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/catalogacaoDados.xlsx
+++ b/catalogacaoDados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovan\Downloads\Catalogação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b5bbdbba8571144/Documentos/Catalogação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21429E2-6FC2-4411-A791-4E73B5425901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{B5095B00-5C27-4C5C-A4AC-E86D5CF29E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E39E0E7-7ADD-4200-8E7E-26715AEC1DCF}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="1944" windowWidth="17280" windowHeight="8880" xr2:uid="{647034AA-FDB6-4D4C-869C-9BA5C3A85442}"/>
+    <workbookView xWindow="2640" yWindow="1248" windowWidth="17280" windowHeight="8880" xr2:uid="{647034AA-FDB6-4D4C-869C-9BA5C3A85442}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="240">
   <si>
     <t>Cajueiro</t>
   </si>
@@ -762,6 +762,33 @@
     <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs121</t>
   </si>
   <si>
+    <t>Guará</t>
+  </si>
+  <si>
+    <t>Eudocimus ruber</t>
+  </si>
+  <si>
+    <t>Guara</t>
+  </si>
+  <si>
+    <t>imgs\especies\Guará\1.jpg</t>
+  </si>
+  <si>
+    <t>imgs\especies\Guará\1.mp4</t>
+  </si>
+  <si>
+    <t>O Eudocimus ruber, conhecido como guará-vermelho, é uma ave nativa de regiões costeiras e zonas úmidas, como manguezais e áreas de restinga. Ele é facilmente reconhecido por sua plumagem vibrante de cor vermelha, que é obtida através de sua dieta rica em crustáceos, como os caranguejos. O guará-vermelho desempenha um papel ecológico importante, ajudando a controlar as populações de crustáceos em manguezais. Além disso, sua presença nesses ecossistemas é um indicativo de boa saúde ambiental, já que essas aves dependem de áreas úmidas bem preservadas para se alimentar e se reproduzir.</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs122</t>
+  </si>
+  <si>
+    <t>Threskiornithidae</t>
+  </si>
+  <si>
+    <t>Eudocimus</t>
+  </si>
+  <si>
     <t>Tralhoto</t>
   </si>
   <si>
@@ -777,20 +804,20 @@
     <t>O Anableps anableps, conhecido popularmente como tralhoto ou peixe-de-quatro-olhos, é um peixe de água doce encontrado em ambientes costeiros, como estuários e manguezais da América do Sul. Este peixe é notável por suas adaptações únicas, incluindo olhos que se dividem em duas partes, permitindo que ele veja tanto acima quanto abaixo da superfície da água ao mesmo tempo. O tralhoto se alimenta de insetos, pequenos crustáceos e matéria orgânica, desempenhando um papel importante na cadeia alimentar desses ecossistemas. Sua presença em áreas de manguezais contribui para a biodiversidade local e é um indicativo da saúde dos ambientes aquáticos em que habita.</t>
   </si>
   <si>
+    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs123</t>
+  </si>
+  <si>
     <t>Anablepidae</t>
   </si>
   <si>
     <t>Four-eyed fish</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/hdG9mRSMpfzGEGs123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,13 +889,6 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -897,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,9 +941,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65009DD9-AB6C-4675-B464-E2784F87AEDE}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
@@ -2241,36 +2258,68 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.2" customHeight="1">
+    <row r="31" spans="1:10" ht="42.6" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>230</v>
+    </row>
+    <row r="32" spans="1:10" ht="28.2" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2304,9 +2353,10 @@
     <hyperlink ref="J28" r:id="rId26" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{2C7221DF-102A-479A-A447-4806655E5DF9}"/>
     <hyperlink ref="J29" r:id="rId27" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{C88C4B0F-589C-441B-9F3C-B61DEBC17FE2}"/>
     <hyperlink ref="J30" r:id="rId28" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{373ED401-B2F9-4B85-86C0-5E587F8DB454}"/>
-    <hyperlink ref="J31" r:id="rId29" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{B6BB9840-E90B-46C3-B4EB-6D22709BD96C}"/>
+    <hyperlink ref="J31" r:id="rId29" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{8E15DE48-F702-4E11-86B6-1741DF1C1A23}"/>
+    <hyperlink ref="J32" r:id="rId30" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E46EBD89-187C-4047-B5B1-7BE926CD33FD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/catalogacaoDados.xlsx
+++ b/catalogacaoDados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b5bbdbba8571144/Documentos/Catalogação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovan\Downloads\Catalogação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{B5095B00-5C27-4C5C-A4AC-E86D5CF29E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E39E0E7-7ADD-4200-8E7E-26715AEC1DCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA24AE7-E788-490B-8B9E-513E605EB8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1248" windowWidth="17280" windowHeight="8880" xr2:uid="{647034AA-FDB6-4D4C-869C-9BA5C3A85442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{647034AA-FDB6-4D4C-869C-9BA5C3A85442}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="244">
   <si>
     <t>Cajueiro</t>
   </si>
@@ -811,6 +811,18 @@
   </si>
   <si>
     <t>Four-eyed fish</t>
+  </si>
+  <si>
+    <t>reino</t>
+  </si>
+  <si>
+    <t>planta</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>fungi</t>
   </si>
 </sst>
 </file>
@@ -1278,1083 +1290,1179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65009DD9-AB6C-4675-B464-E2784F87AEDE}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="22.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="2" width="18.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.59765625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15.6">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="15.6">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1">
+    <row r="2" spans="1:11" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:11" ht="43.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" customHeight="1">
+    <row r="4" spans="1:11" ht="43.2" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="49.8" customHeight="1">
+    <row r="5" spans="1:11" ht="49.8" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="41.4" customHeight="1">
+    <row r="6" spans="1:11" ht="41.4" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36.6" customHeight="1">
+    <row r="7" spans="1:11" ht="36.6" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="37.799999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="37.799999999999997" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38.4" customHeight="1">
+    <row r="9" spans="1:11" ht="38.4" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="37.200000000000003" customHeight="1">
+    <row r="10" spans="1:11" ht="37.200000000000003" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.6" customHeight="1">
+    <row r="11" spans="1:11" ht="36.6" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="49.2" customHeight="1">
+    <row r="12" spans="1:11" ht="49.2" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" customHeight="1">
+    <row r="13" spans="1:11" ht="51" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.8" customHeight="1">
+    <row r="14" spans="1:11" ht="46.8" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="42.6" customHeight="1">
+    <row r="15" spans="1:11" ht="42.6" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="57.6" customHeight="1">
+    <row r="16" spans="1:11" ht="57.6" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51.6" customHeight="1">
+    <row r="17" spans="1:11" ht="51.6" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="49.8" customHeight="1">
+    <row r="18" spans="1:11" ht="49.8" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1">
+    <row r="19" spans="1:11" ht="39" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="31.2" customHeight="1">
+    <row r="20" spans="1:11" ht="31.2" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="37.200000000000003" customHeight="1">
+    <row r="21" spans="1:11" ht="37.200000000000003" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.8" customHeight="1">
+    <row r="22" spans="1:11" ht="43.8" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="40.200000000000003" customHeight="1">
+    <row r="23" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="I23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.8" customHeight="1">
+    <row r="24" spans="1:11" ht="43.8" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="40.799999999999997" customHeight="1">
+    <row r="25" spans="1:11" ht="40.799999999999997" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="42.6" customHeight="1">
+    <row r="26" spans="1:11" ht="42.6" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="I26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="40.200000000000003" customHeight="1">
+    <row r="27" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="I27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="33.6" customHeight="1">
+    <row r="28" spans="1:11" ht="33.6" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="32.4" customHeight="1">
+    <row r="29" spans="1:11" ht="32.4" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30.6" customHeight="1">
+    <row r="30" spans="1:11" ht="30.6" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="42.6" customHeight="1">
+    <row r="31" spans="1:11" ht="42.6" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.2" customHeight="1">
+    <row r="32" spans="1:11" ht="28.2" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{EF16FD7D-8FF7-4BA1-962D-AAADC35754EE}"/>
-    <hyperlink ref="J4" r:id="rId2" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{05C86542-E175-4BD1-A8A2-BB68A5C21E5F}"/>
-    <hyperlink ref="J5" r:id="rId3" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{807139DE-EBDF-411E-BB72-683FB3236E01}"/>
-    <hyperlink ref="J6" r:id="rId4" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{63AD59A5-D5C3-468F-B8E8-A4D5534C4CAC}"/>
-    <hyperlink ref="J7" r:id="rId5" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{3259EC55-0C8F-4019-ACB4-A7A67DB49710}"/>
-    <hyperlink ref="J8" r:id="rId6" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{10B6E420-88A8-4736-A1E4-E5926573D284}"/>
-    <hyperlink ref="J9" r:id="rId7" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{5EDB5C21-5477-4397-BDE9-7C9FC257F708}"/>
-    <hyperlink ref="J10" r:id="rId8" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{84155879-B81A-4A0D-806F-20C1D61CBF4A}"/>
-    <hyperlink ref="J11" r:id="rId9" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{BD2DC36B-8AB6-479D-8BAE-4CA3E0D567C7}"/>
-    <hyperlink ref="J12" r:id="rId10" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{37F289A1-BE0C-46BB-8821-BA9236799B62}"/>
-    <hyperlink ref="J13" r:id="rId11" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{F1EB63F1-94EA-4EAC-8B27-EEC0EDEF3396}"/>
-    <hyperlink ref="J14" r:id="rId12" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E2B91EE3-A2CF-4B25-911A-E826C24580D9}"/>
-    <hyperlink ref="J15" r:id="rId13" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E42724D5-0D36-46DA-80A3-50224C9AB603}"/>
-    <hyperlink ref="J16" r:id="rId14" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{A5117219-8659-438A-A59A-4EDF638BFF65}"/>
-    <hyperlink ref="J17" r:id="rId15" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{65E172B7-1585-487A-B2EC-5FA14D3BBFDA}"/>
-    <hyperlink ref="J18" r:id="rId16" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E2A99AC7-1A55-4D1B-A04A-97B03E65244B}"/>
-    <hyperlink ref="J19" r:id="rId17" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D0B89B94-FCF0-4448-8290-5913727F04BD}"/>
-    <hyperlink ref="J20" r:id="rId18" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{DFB93324-58FD-4BA9-98F9-BB0314F4E641}"/>
-    <hyperlink ref="J21" r:id="rId19" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D6F9BE01-9EFA-4937-8E67-F76C3EF1F13C}"/>
-    <hyperlink ref="J22" r:id="rId20" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{5EF95A8F-B38A-41C2-A591-612B166FE57F}"/>
-    <hyperlink ref="J23" r:id="rId21" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{063FBC01-888D-4370-876B-1DF7E6398C9F}"/>
-    <hyperlink ref="J24" r:id="rId22" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D8CE8098-21B5-42FC-8A27-C36C931330FC}"/>
-    <hyperlink ref="J25" r:id="rId23" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{8C1CE24C-D4C0-43A9-8134-ADC47CE14B5A}"/>
-    <hyperlink ref="J26" r:id="rId24" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{2C601E6C-3B57-460F-B450-26722195B9FA}"/>
-    <hyperlink ref="J27" r:id="rId25" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{597A4FEC-DFF5-4561-9675-FD2BE0F60011}"/>
-    <hyperlink ref="J28" r:id="rId26" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{2C7221DF-102A-479A-A447-4806655E5DF9}"/>
-    <hyperlink ref="J29" r:id="rId27" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{C88C4B0F-589C-441B-9F3C-B61DEBC17FE2}"/>
-    <hyperlink ref="J30" r:id="rId28" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{373ED401-B2F9-4B85-86C0-5E587F8DB454}"/>
-    <hyperlink ref="J31" r:id="rId29" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{8E15DE48-F702-4E11-86B6-1741DF1C1A23}"/>
-    <hyperlink ref="J32" r:id="rId30" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E46EBD89-187C-4047-B5B1-7BE926CD33FD}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{EF16FD7D-8FF7-4BA1-962D-AAADC35754EE}"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{05C86542-E175-4BD1-A8A2-BB68A5C21E5F}"/>
+    <hyperlink ref="K5" r:id="rId3" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{807139DE-EBDF-411E-BB72-683FB3236E01}"/>
+    <hyperlink ref="K6" r:id="rId4" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{63AD59A5-D5C3-468F-B8E8-A4D5534C4CAC}"/>
+    <hyperlink ref="K7" r:id="rId5" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{3259EC55-0C8F-4019-ACB4-A7A67DB49710}"/>
+    <hyperlink ref="K8" r:id="rId6" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{10B6E420-88A8-4736-A1E4-E5926573D284}"/>
+    <hyperlink ref="K9" r:id="rId7" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{5EDB5C21-5477-4397-BDE9-7C9FC257F708}"/>
+    <hyperlink ref="K10" r:id="rId8" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{84155879-B81A-4A0D-806F-20C1D61CBF4A}"/>
+    <hyperlink ref="K11" r:id="rId9" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{BD2DC36B-8AB6-479D-8BAE-4CA3E0D567C7}"/>
+    <hyperlink ref="K12" r:id="rId10" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{37F289A1-BE0C-46BB-8821-BA9236799B62}"/>
+    <hyperlink ref="K13" r:id="rId11" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{F1EB63F1-94EA-4EAC-8B27-EEC0EDEF3396}"/>
+    <hyperlink ref="K14" r:id="rId12" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E2B91EE3-A2CF-4B25-911A-E826C24580D9}"/>
+    <hyperlink ref="K15" r:id="rId13" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E42724D5-0D36-46DA-80A3-50224C9AB603}"/>
+    <hyperlink ref="K16" r:id="rId14" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{A5117219-8659-438A-A59A-4EDF638BFF65}"/>
+    <hyperlink ref="K17" r:id="rId15" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{65E172B7-1585-487A-B2EC-5FA14D3BBFDA}"/>
+    <hyperlink ref="K18" r:id="rId16" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E2A99AC7-1A55-4D1B-A04A-97B03E65244B}"/>
+    <hyperlink ref="K19" r:id="rId17" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D0B89B94-FCF0-4448-8290-5913727F04BD}"/>
+    <hyperlink ref="K20" r:id="rId18" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{DFB93324-58FD-4BA9-98F9-BB0314F4E641}"/>
+    <hyperlink ref="K21" r:id="rId19" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D6F9BE01-9EFA-4937-8E67-F76C3EF1F13C}"/>
+    <hyperlink ref="K22" r:id="rId20" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{5EF95A8F-B38A-41C2-A591-612B166FE57F}"/>
+    <hyperlink ref="K23" r:id="rId21" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{063FBC01-888D-4370-876B-1DF7E6398C9F}"/>
+    <hyperlink ref="K24" r:id="rId22" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{D8CE8098-21B5-42FC-8A27-C36C931330FC}"/>
+    <hyperlink ref="K25" r:id="rId23" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{8C1CE24C-D4C0-43A9-8134-ADC47CE14B5A}"/>
+    <hyperlink ref="K26" r:id="rId24" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{2C601E6C-3B57-460F-B450-26722195B9FA}"/>
+    <hyperlink ref="K27" r:id="rId25" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{597A4FEC-DFF5-4561-9675-FD2BE0F60011}"/>
+    <hyperlink ref="K28" r:id="rId26" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{2C7221DF-102A-479A-A447-4806655E5DF9}"/>
+    <hyperlink ref="K29" r:id="rId27" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{C88C4B0F-589C-441B-9F3C-B61DEBC17FE2}"/>
+    <hyperlink ref="K30" r:id="rId28" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{373ED401-B2F9-4B85-86C0-5E587F8DB454}"/>
+    <hyperlink ref="K31" r:id="rId29" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{8E15DE48-F702-4E11-86B6-1741DF1C1A23}"/>
+    <hyperlink ref="K32" r:id="rId30" display="https://maps.app.goo.gl/hdG9mRSMpfzGEGs96" xr:uid="{E46EBD89-187C-4047-B5B1-7BE926CD33FD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
